--- a/app/utils/sugerencias.xlsx
+++ b/app/utils/sugerencias.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,22 @@
         <v>45991.99290691278</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ana</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>cambies el sitio a rosa</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45992.88581715246</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
